--- a/biology/Histoire de la zoologie et de la botanique/Louis_Benoît_Guersant/Louis_Benoît_Guersant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Benoît_Guersant/Louis_Benoît_Guersant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Beno%C3%AEt_Guersant</t>
+          <t>Louis_Benoît_Guersant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Benoît Guersant (né à Dreux le 29 avril 1777 et mort à Paris le 23 mai 1848[1]) est un médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Benoît Guersant (né à Dreux le 29 avril 1777 et mort à Paris le 23 mai 1848) est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Beno%C3%AEt_Guersant</t>
+          <t>Louis_Benoît_Guersant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Nicolas Guersant, médecin de l'Hôtel-Dieu de Dreux et d'Adélaïde Françoise Gersant[2], après avoir commencé ses études de médecine à Rouen, il les termine à Paris à l'École de santé (qui deviendra l’École de médecine en 1798). C'est là qu'en 1803 (26 Prairial An XI) il présente la question  « Quels sont les caractères des propriétés vitales dans les végétaux » où son nom apparaît orthographié sous la forme Guersent[3].
-Il est connu au XIXe siècle pour avoir mis fin, en 1813, à une épidémie de typhus en Bourgogne [4], et notamment dans l'Yonne où des dépôts existaient à Avallon, Joigny, Sens, Saint-Florentin et Tonnerre ainsi qu'à Auxerre où la concentration des prisonniers espagnols employés pour la construction du canal de Bourgogne était telle que l'on a compté jusqu'à vingt décès par jour dus à cette maladie en 1812[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Nicolas Guersant, médecin de l'Hôtel-Dieu de Dreux et d'Adélaïde Françoise Gersant, après avoir commencé ses études de médecine à Rouen, il les termine à Paris à l'École de santé (qui deviendra l’École de médecine en 1798). C'est là qu'en 1803 (26 Prairial An XI) il présente la question  « Quels sont les caractères des propriétés vitales dans les végétaux » où son nom apparaît orthographié sous la forme Guersent.
+Il est connu au XIXe siècle pour avoir mis fin, en 1813, à une épidémie de typhus en Bourgogne , et notamment dans l'Yonne où des dépôts existaient à Avallon, Joigny, Sens, Saint-Florentin et Tonnerre ainsi qu'à Auxerre où la concentration des prisonniers espagnols employés pour la construction du canal de Bourgogne était telle que l'on a compté jusqu'à vingt décès par jour dus à cette maladie en 1812. 
 Pendant trente ans, il sera médecin titulaire à l'Hôpital des Enfants malades où l'un de ses fils, Paul (1800-1869), sera chirurgien de 1840 à 1860. Guersant père effectua, entre autres, des travaux sur la coqueluche et la diphtérie (qu'il nomme angine couenneuse).
-Membre de l'Académie royale de médecine (titulaire du 6 février 1821 au 23 mai 1848[1]), il est nommé comme l'un des médecins consultants du roi Louis-Philippe Ier et devint plus particulièrement médecin des enfants royaux durant la Monarchie de Juillet.
-Antérieurement, en 1799, le 24 Ventôse an VII, grâce à ses connaissances botaniques approfondies puisqu'il avait suivi les cours de Lamarck, plusieurs personnalités scientifiques, parmi lesquelles Georges Cuvier, lui avaient permis d'obtenir une chaire d'histoire naturelle et de botanique à l'École centrale de Rouen, chaire qu'il occupa jusqu'en 1808, après avoir imposé la classification de Jussieu au Jardin des plantes de cette même ville [6].
+Membre de l'Académie royale de médecine (titulaire du 6 février 1821 au 23 mai 1848), il est nommé comme l'un des médecins consultants du roi Louis-Philippe Ier et devint plus particulièrement médecin des enfants royaux durant la Monarchie de Juillet.
+Antérieurement, en 1799, le 24 Ventôse an VII, grâce à ses connaissances botaniques approfondies puisqu'il avait suivi les cours de Lamarck, plusieurs personnalités scientifiques, parmi lesquelles Georges Cuvier, lui avaient permis d'obtenir une chaire d'histoire naturelle et de botanique à l'École centrale de Rouen, chaire qu'il occupa jusqu'en 1808, après avoir imposé la classification de Jussieu au Jardin des plantes de cette même ville .
 Une rue de Paris, dans laquelle il avait vécu, porte son nom dans le 17e arrondissement, ainsi qu'à Dreux où il est né.
 </t>
         </is>
